--- a/v1.0/thingBot-Base_v1P0.xlsx
+++ b/v1.0/thingBot-Base_v1P0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="107">
   <si>
     <t>Reference</t>
   </si>
@@ -46,9 +46,6 @@
     <t>0.1uF</t>
   </si>
   <si>
-    <t>10uF</t>
-  </si>
-  <si>
     <t xml:space="preserve">D1 D2 </t>
   </si>
   <si>
@@ -172,24 +169,6 @@
     <t>sunrom</t>
   </si>
   <si>
-    <t xml:space="preserve">U1 </t>
-  </si>
-  <si>
-    <t>VBUS053AZ</t>
-  </si>
-  <si>
-    <t>smt-soic:VBUS053AZ</t>
-  </si>
-  <si>
-    <t>USB-OTG BUS-Port ESD-Protection for VBUS = 12 V</t>
-  </si>
-  <si>
-    <t>vishay</t>
-  </si>
-  <si>
-    <t>VBUS053AZ-HAF-GS08</t>
-  </si>
-  <si>
     <t xml:space="preserve">U2 </t>
   </si>
   <si>
@@ -211,12 +190,6 @@
     <t xml:space="preserve">U3 </t>
   </si>
   <si>
-    <t>AMS1117-3V3</t>
-  </si>
-  <si>
-    <t>TO_SOT_Packages_SMD:SOT-223</t>
-  </si>
-  <si>
     <t>Texas Instruments</t>
   </si>
   <si>
@@ -262,15 +235,6 @@
     <t>P7 P8</t>
   </si>
   <si>
-    <t xml:space="preserve">C2 </t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>C1 C3</t>
-  </si>
-  <si>
     <t xml:space="preserve">                   thingBot-Base</t>
   </si>
   <si>
@@ -304,15 +268,9 @@
     <t>1000 PCB</t>
   </si>
   <si>
-    <t>GRM21BR61A106KE19L</t>
-  </si>
-  <si>
     <t>Murata Electronics</t>
   </si>
   <si>
-    <t>Multilayer Ceramic Capacitors MLCC - SMD/SMT 0805 10uF 10volts X5R 10%</t>
-  </si>
-  <si>
     <t>BLM21AG102SN1D</t>
   </si>
   <si>
@@ -322,18 +280,9 @@
     <t>APT2012YC</t>
   </si>
   <si>
-    <t>LLP-75-7L</t>
-  </si>
-  <si>
     <t>QFN-28</t>
   </si>
   <si>
-    <t>AMS1117-3.3</t>
-  </si>
-  <si>
-    <t>SOT-223</t>
-  </si>
-  <si>
     <t>M22-2510205</t>
   </si>
   <si>
@@ -349,13 +298,43 @@
     <t>TOTAL</t>
   </si>
   <si>
-    <t>LM1117(AMS1117) 800-mA Low-Dropout Linear Regulator</t>
-  </si>
-  <si>
     <t>1x10 2.0mm Female Header TH</t>
   </si>
   <si>
-    <t>Purchased cost  for 1</t>
+    <t>LP5907_LDO_250mA</t>
+  </si>
+  <si>
+    <t>SOT-23-5 250mA_250mV-dropout</t>
+  </si>
+  <si>
+    <t>TO_SOT_Packages_SMD:SOT-23-5</t>
+  </si>
+  <si>
+    <t>SOT-23-5</t>
+  </si>
+  <si>
+    <t>LP5907MFX-3.3/NOPB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C1 </t>
+  </si>
+  <si>
+    <t>C2 C3 C4</t>
+  </si>
+  <si>
+    <t>C5 C6</t>
+  </si>
+  <si>
+    <t>47pF</t>
+  </si>
+  <si>
+    <t>R4 R5</t>
+  </si>
+  <si>
+    <t>27E</t>
+  </si>
+  <si>
+    <t>Purchased cost  for 100</t>
   </si>
 </sst>
 </file>
@@ -951,7 +930,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -966,7 +945,6 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="42" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1335,9 +1313,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomLeft" activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1345,59 +1323,66 @@
     <col min="3" max="3" width="11.5703125" customWidth="1"/>
     <col min="4" max="4" width="21.7109375" customWidth="1"/>
     <col min="5" max="5" width="58.42578125" customWidth="1"/>
-    <col min="6" max="6" width="26.85546875" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="55" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" customWidth="1"/>
-    <col min="10" max="17" width="0" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="21.42578125" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" customWidth="1"/>
+    <col min="7" max="7" width="29" customWidth="1"/>
+    <col min="8" max="8" width="54.140625" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" customWidth="1"/>
+    <col min="11" max="11" width="14" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" customWidth="1"/>
+    <col min="15" max="15" width="13" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" customWidth="1"/>
+    <col min="17" max="17" width="15.5703125" customWidth="1"/>
+    <col min="18" max="18" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
+      <c r="A1" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
     </row>
     <row r="2" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
+      <c r="A2" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
     </row>
     <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
@@ -1421,7 +1406,7 @@
         <v>3</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="J3" s="2">
         <v>1</v>
@@ -1437,16 +1422,16 @@
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -1454,22 +1439,22 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="H4" t="s">
         <v>7</v>
@@ -1491,15 +1476,15 @@
       </c>
       <c r="O4">
         <f>B4*J4</f>
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="P4">
         <f>B4*K4</f>
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q4">
         <f>B4*M4</f>
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="R4">
         <v>1</v>
@@ -1510,22 +1495,22 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="H5" t="s">
         <v>7</v>
@@ -1547,41 +1532,38 @@
       </c>
       <c r="O5">
         <f>B5*J5</f>
-        <v>3.5</v>
+        <v>10.5</v>
       </c>
       <c r="P5">
         <f t="shared" ref="P5:P22" si="0">B5*K5</f>
-        <v>2.1</v>
+        <v>6.3000000000000007</v>
       </c>
       <c r="Q5">
         <f t="shared" ref="Q5:Q22" si="1">B5*M5</f>
-        <v>2.1</v>
+        <v>6.3000000000000007</v>
       </c>
       <c r="R5">
         <v>0.9</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>3</v>
-      </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>96</v>
+        <v>79</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="H6" t="s">
         <v>7</v>
@@ -1590,31 +1572,31 @@
         <v>805</v>
       </c>
       <c r="J6">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="K6">
         <v>2.1</v>
       </c>
       <c r="L6">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="M6">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="O6">
-        <f t="shared" ref="O6:O22" si="2">B6*J6</f>
+        <f>B6*J6</f>
         <v>7</v>
       </c>
       <c r="P6">
-        <f t="shared" si="0"/>
-        <v>2.1</v>
+        <f>B6*K6</f>
+        <v>4.2</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="1"/>
-        <v>1.4</v>
+        <f>B6*L6</f>
+        <v>4.2</v>
       </c>
       <c r="R6">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -1625,22 +1607,22 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H7" t="s">
         <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="H7" t="s">
-        <v>12</v>
       </c>
       <c r="I7">
         <v>805</v>
@@ -1658,7 +1640,7 @@
         <v>4.55</v>
       </c>
       <c r="O7">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="O7:O22" si="2">B7*J7</f>
         <v>18.2</v>
       </c>
       <c r="P7">
@@ -1681,22 +1663,22 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" t="s">
         <v>14</v>
       </c>
-      <c r="D8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="H8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I8">
         <v>805</v>
@@ -1737,22 +1719,22 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
         <v>16</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" t="s">
         <v>17</v>
-      </c>
-      <c r="E9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" t="s">
-        <v>18</v>
       </c>
       <c r="J9">
         <v>49</v>
@@ -1790,22 +1772,22 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H10" t="s">
         <v>23</v>
-      </c>
-      <c r="E10" t="s">
-        <v>88</v>
-      </c>
-      <c r="F10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="H10" t="s">
-        <v>24</v>
       </c>
       <c r="J10">
         <v>10</v>
@@ -1843,22 +1825,22 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>26</v>
       </c>
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
       <c r="E11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" t="s">
         <v>29</v>
-      </c>
-      <c r="F11" t="s">
-        <v>30</v>
       </c>
       <c r="G11" s="1">
         <v>61300211121</v>
       </c>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J11">
         <v>8.4</v>
@@ -1896,33 +1878,33 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
         <v>31</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="H12" t="s">
         <v>32</v>
       </c>
-      <c r="E12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="H12" t="s">
-        <v>33</v>
-      </c>
-      <c r="J12" s="11">
+      <c r="J12" s="10">
         <v>42.7</v>
       </c>
-      <c r="K12" s="11">
+      <c r="K12" s="10">
         <v>31.08</v>
       </c>
-      <c r="L12" s="11">
+      <c r="L12" s="10">
         <v>27.02</v>
       </c>
-      <c r="M12" s="11">
+      <c r="M12" s="10">
         <v>22.26</v>
       </c>
       <c r="O12">
@@ -1949,22 +1931,22 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" t="s">
         <v>36</v>
-      </c>
-      <c r="D13" t="s">
-        <v>87</v>
-      </c>
-      <c r="E13" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H13" t="s">
-        <v>37</v>
       </c>
       <c r="O13">
         <f t="shared" si="2"/>
@@ -1990,22 +1972,22 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" t="s">
         <v>40</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" t="s">
         <v>41</v>
-      </c>
-      <c r="E14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" t="s">
-        <v>42</v>
       </c>
       <c r="G14" s="1">
         <v>61300211121</v>
       </c>
       <c r="H14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J14">
         <v>8.4</v>
@@ -2036,31 +2018,28 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>12</v>
-      </c>
       <c r="B15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="D15" t="s">
+        <v>105</v>
+      </c>
+      <c r="E15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H15" t="s">
         <v>44</v>
       </c>
-      <c r="E15" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="H15" t="s">
-        <v>45</v>
-      </c>
-      <c r="I15" s="13">
+      <c r="I15" s="12">
         <v>805</v>
       </c>
       <c r="J15">
@@ -2076,129 +2055,129 @@
         <v>2.59</v>
       </c>
       <c r="O15">
-        <f t="shared" si="2"/>
-        <v>23.1</v>
+        <f>B15*J15</f>
+        <v>15.4</v>
       </c>
       <c r="P15">
-        <f t="shared" si="0"/>
-        <v>8.3999999999999986</v>
+        <f>B15*K15</f>
+        <v>5.6</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="1"/>
-        <v>7.77</v>
+        <f>B15*L15</f>
+        <v>5.6</v>
       </c>
       <c r="R15">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E16" t="s">
-        <v>50</v>
-      </c>
-      <c r="F16" t="s">
-        <v>51</v>
-      </c>
-      <c r="G16" s="1">
-        <v>4273</v>
+        <v>45</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="H16" t="s">
-        <v>49</v>
-      </c>
-      <c r="I16" s="13"/>
+        <v>44</v>
+      </c>
+      <c r="I16" s="12">
+        <v>805</v>
+      </c>
       <c r="J16">
-        <v>10</v>
+        <v>7.7</v>
       </c>
       <c r="K16">
-        <v>8</v>
+        <v>2.8</v>
       </c>
       <c r="L16">
-        <v>8</v>
+        <v>2.8</v>
       </c>
       <c r="M16">
-        <v>8</v>
+        <v>2.59</v>
       </c>
       <c r="O16">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>23.1</v>
       </c>
       <c r="P16">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>8.3999999999999986</v>
       </c>
       <c r="Q16">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>7.77</v>
       </c>
       <c r="R16">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D17" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E17" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F17" t="s">
-        <v>56</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
+      </c>
+      <c r="G17" s="1">
+        <v>4273</v>
       </c>
       <c r="H17" t="s">
-        <v>54</v>
-      </c>
-      <c r="I17" s="14" t="s">
-        <v>102</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="I17" s="12"/>
       <c r="J17">
-        <v>44.1</v>
+        <v>10</v>
       </c>
       <c r="K17">
-        <v>26.32</v>
+        <v>8</v>
       </c>
       <c r="L17">
-        <v>22.4</v>
+        <v>8</v>
       </c>
       <c r="M17">
-        <v>17.920000000000002</v>
+        <v>8</v>
       </c>
       <c r="O17">
         <f t="shared" si="2"/>
-        <v>44.1</v>
+        <v>10</v>
       </c>
       <c r="P17">
         <f t="shared" si="0"/>
-        <v>26.32</v>
+        <v>8</v>
       </c>
       <c r="Q17">
         <f t="shared" si="1"/>
-        <v>17.920000000000002</v>
+        <v>8</v>
       </c>
       <c r="R17">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
@@ -2209,25 +2188,25 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D18" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E18" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F18" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="H18" t="s">
-        <v>60</v>
-      </c>
-      <c r="I18" s="14" t="s">
-        <v>103</v>
+        <v>53</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>88</v>
       </c>
       <c r="J18">
         <v>192.5</v>
@@ -2265,52 +2244,52 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D19" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="E19" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="F19" t="s">
-        <v>67</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>104</v>
+        <v>58</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="H19" t="s">
-        <v>66</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>105</v>
+        <v>97</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>98</v>
       </c>
       <c r="J19">
-        <v>3.1989999999999998</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="K19">
-        <v>3.1989999999999998</v>
+        <v>25.48</v>
       </c>
       <c r="L19">
-        <v>1.7</v>
+        <v>19.39</v>
       </c>
       <c r="M19">
-        <v>1.7</v>
+        <v>11.06</v>
       </c>
       <c r="O19">
         <f t="shared" si="2"/>
-        <v>3.1989999999999998</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="P19">
         <f t="shared" si="0"/>
-        <v>3.1989999999999998</v>
+        <v>25.48</v>
       </c>
       <c r="Q19">
         <f t="shared" si="1"/>
-        <v>1.7</v>
+        <v>11.06</v>
       </c>
       <c r="R19">
-        <v>7</v>
+        <v>25.48</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
@@ -2321,24 +2300,24 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D20" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E20" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G20" s="1">
         <v>61300211121</v>
       </c>
       <c r="H20" t="s">
-        <v>70</v>
-      </c>
-      <c r="I20" s="13"/>
+        <v>61</v>
+      </c>
+      <c r="I20" s="12"/>
       <c r="J20">
         <v>8.4</v>
       </c>
@@ -2375,19 +2354,19 @@
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="D21" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="E21" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="J21">
         <v>13.3</v>
@@ -2425,30 +2404,30 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D22" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E22" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G22" t="s">
-        <v>80</v>
-      </c>
-      <c r="J22" s="11">
+        <v>71</v>
+      </c>
+      <c r="J22" s="10">
         <v>42.7</v>
       </c>
-      <c r="K22" s="11">
+      <c r="K22" s="10">
         <v>31.08</v>
       </c>
-      <c r="L22" s="11">
+      <c r="L22" s="10">
         <v>27.02</v>
       </c>
-      <c r="M22" s="11">
+      <c r="M22" s="10">
         <v>22.26</v>
       </c>
       <c r="O22">
@@ -2468,24 +2447,24 @@
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="N24" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="O24" s="12">
+      <c r="N24" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="O24" s="11">
         <f>SUM(O4:O22)</f>
-        <v>514.59900000000005</v>
-      </c>
-      <c r="P24" s="12">
+        <v>525.4</v>
+      </c>
+      <c r="P24" s="11">
         <f t="shared" ref="P24:Q24" si="3">SUM(P4:P22)</f>
-        <v>381.59899999999999</v>
-      </c>
-      <c r="Q24" s="12">
+        <v>387.36</v>
+      </c>
+      <c r="Q24" s="11">
         <f t="shared" si="3"/>
-        <v>323.96000000000004</v>
-      </c>
-      <c r="R24" s="15">
+        <v>325.89999999999998</v>
+      </c>
+      <c r="R24" s="14">
         <f>SUM(R4:R22)</f>
-        <v>197.1</v>
+        <v>176.28</v>
       </c>
     </row>
   </sheetData>
@@ -2496,15 +2475,16 @@
   <hyperlinks>
     <hyperlink ref="F5" r:id="rId1" display="http://www.mouser.in/vitramon/"/>
     <hyperlink ref="F4" r:id="rId2" display="http://www.mouser.in/vitramon/"/>
-    <hyperlink ref="G6" r:id="rId3" display="http://www.mouser.in/ProductDetail/Murata-Electronics/GRM21BR61A106KE19L/?qs=sGAEpiMZZMsh%252b1woXyUXj7Ax4K3SW3FrOjiBEQ7%2fLg4%3d"/>
-    <hyperlink ref="F6" r:id="rId4" display="http://www.mouser.in/murataelectronics"/>
-    <hyperlink ref="F15" r:id="rId5" display="http://www.mouser.in/murataelectronics/"/>
-    <hyperlink ref="G8" r:id="rId6" display="http://www.mouser.in/ProductDetail/Kingbright/APT2012SGC/?qs=sGAEpiMZZMseGfSY3csMkeytxqHAv00AGb4ncJXLQok%3d"/>
-    <hyperlink ref="G7" r:id="rId7" display="http://www.mouser.in/ProductDetail/Kingbright/APT2012YC/?qs=sGAEpiMZZMseGfSY3csMkeytxqHAv00AKvOaAyVdWVo%3d"/>
-    <hyperlink ref="F12" r:id="rId8" display="http://www.mouser.in/fci/"/>
-    <hyperlink ref="G10" r:id="rId9" display="https://www.sparkfun.com/static/rohs/"/>
+    <hyperlink ref="F16" r:id="rId3" display="http://www.mouser.in/murataelectronics/"/>
+    <hyperlink ref="G8" r:id="rId4" display="http://www.mouser.in/ProductDetail/Kingbright/APT2012SGC/?qs=sGAEpiMZZMseGfSY3csMkeytxqHAv00AGb4ncJXLQok%3d"/>
+    <hyperlink ref="G7" r:id="rId5" display="http://www.mouser.in/ProductDetail/Kingbright/APT2012YC/?qs=sGAEpiMZZMseGfSY3csMkeytxqHAv00AKvOaAyVdWVo%3d"/>
+    <hyperlink ref="F12" r:id="rId6" display="http://www.mouser.in/fci/"/>
+    <hyperlink ref="G10" r:id="rId7" display="https://www.sparkfun.com/static/rohs/"/>
+    <hyperlink ref="G19" r:id="rId8" display="http://www.mouser.in/ProductDetail/Texas-Instruments/LP5907MFX-33-NOPB/?qs=sGAEpiMZZMtxga3Frp99ssdbdmlAwb6R"/>
+    <hyperlink ref="F6" r:id="rId9" display="http://www.mouser.in/vitramon/"/>
+    <hyperlink ref="F15" r:id="rId10" display="http://www.mouser.in/murataelectronics/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>